--- a/Excel/LegacyConfig.xlsx
+++ b/Excel/LegacyConfig.xlsx
@@ -27,9 +27,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="23">
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>Role</t>
   </si>
   <si>
     <t>ItemId</t>
@@ -63,6 +66,12 @@
   </si>
   <si>
     <t>Power3</t>
+  </si>
+  <si>
+    <t>DropRate</t>
+  </si>
+  <si>
+    <t>RecoveryNubmer</t>
   </si>
   <si>
     <t>Id</t>
@@ -1054,50 +1063,50 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B23" sqref="$A23:$XFD23"/>
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="6.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="9" style="2"/>
-    <col min="3" max="4" width="9.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13.25" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13.375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="11.125" style="2" customWidth="1"/>
-    <col min="12" max="14" width="12.125" style="1" customWidth="1"/>
-    <col min="15" max="16372" width="9" style="2"/>
-    <col min="16373" max="16384" width="9" style="1"/>
+    <col min="3" max="5" width="9.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15.625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.25" style="2" customWidth="1"/>
+    <col min="11" max="11" width="13.375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="11.125" style="2" customWidth="1"/>
+    <col min="13" max="17" width="12.125" style="1" customWidth="1"/>
+    <col min="18" max="16373" width="9" style="2"/>
+    <col min="16374" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:11">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
-      <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
-    </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:11">
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-    </row>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:17">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
@@ -1136,12 +1145,21 @@
       <c r="N3" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="O3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:17">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>1</v>
@@ -1176,971 +1194,1205 @@
       <c r="N4" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="O4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:17">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" customHeight="1" spans="3:14">
+        <v>16</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="3:17">
       <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4">
         <v>6000001</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>17</v>
+      <c r="F6" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" s="1">
+        <v>22</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="1">
         <v>100</v>
-      </c>
-      <c r="M6" s="1">
-        <v>0</v>
       </c>
       <c r="N6" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" s="1" customFormat="1" customHeight="1" spans="3:14">
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
+        <v>100</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" customHeight="1" spans="3:17">
       <c r="C7" s="1">
         <v>2</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4">
         <v>6000002</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>17</v>
+      <c r="F7" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L7" s="1">
+        <v>22</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="1">
         <v>100</v>
-      </c>
-      <c r="M7" s="1">
-        <v>0</v>
       </c>
       <c r="N7" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" s="1" customFormat="1" customHeight="1" spans="3:14">
+      <c r="O7" s="1">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1">
+        <v>100</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" customHeight="1" spans="3:17">
       <c r="C8" s="1">
         <v>3</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4">
         <v>6000003</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>17</v>
+      <c r="F8" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L8" s="1">
+        <v>22</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="1">
         <v>30</v>
       </c>
-      <c r="M8" s="1">
-        <v>10</v>
-      </c>
       <c r="N8" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" s="1" customFormat="1" customHeight="1" spans="3:14">
+      <c r="O8" s="1">
+        <v>10</v>
+      </c>
+      <c r="P8" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" customHeight="1" spans="3:17">
       <c r="C9" s="1">
         <v>4</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4">
         <v>6000003</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>17</v>
+      <c r="F9" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L9" s="1">
+        <v>22</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" s="1">
         <v>30</v>
       </c>
-      <c r="M9" s="1">
-        <v>10</v>
-      </c>
       <c r="N9" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" s="1" customFormat="1" customHeight="1" spans="3:14">
+      <c r="O9" s="1">
+        <v>10</v>
+      </c>
+      <c r="P9" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" customHeight="1" spans="3:17">
       <c r="C10" s="1">
         <v>5</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4">
         <v>6000003</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>17</v>
+      <c r="F10" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L10" s="1">
+        <v>22</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" s="1">
         <v>30</v>
       </c>
-      <c r="M10" s="1">
-        <v>10</v>
-      </c>
       <c r="N10" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" s="1" customFormat="1" customHeight="1" spans="3:14">
+      <c r="O10" s="1">
+        <v>10</v>
+      </c>
+      <c r="P10" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" customHeight="1" spans="3:17">
       <c r="C11" s="1">
         <v>6</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4">
         <v>6000003</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>17</v>
+      <c r="F11" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L11" s="1">
+        <v>22</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11" s="1">
         <v>30</v>
       </c>
-      <c r="M11" s="1">
-        <v>10</v>
-      </c>
       <c r="N11" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" s="1" customFormat="1" customHeight="1" spans="3:14">
+      <c r="O11" s="1">
+        <v>10</v>
+      </c>
+      <c r="P11" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" customHeight="1" spans="3:17">
       <c r="C12" s="1">
         <v>7</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4">
         <v>6000003</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>17</v>
+      <c r="F12" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L12" s="1">
+        <v>22</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" s="1">
         <v>30</v>
       </c>
-      <c r="M12" s="1">
-        <v>10</v>
-      </c>
       <c r="N12" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" s="1" customFormat="1" customHeight="1" spans="3:14">
+      <c r="O12" s="1">
+        <v>10</v>
+      </c>
+      <c r="P12" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" customHeight="1" spans="3:17">
       <c r="C13" s="1">
         <v>8</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4">
         <v>6000003</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>17</v>
+      <c r="F13" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L13" s="1">
+        <v>22</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M13" s="1">
         <v>30</v>
       </c>
-      <c r="M13" s="1">
-        <v>10</v>
-      </c>
       <c r="N13" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" s="1" customFormat="1" customHeight="1" spans="4:4">
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" s="1" customFormat="1" customHeight="1" spans="3:14">
+      <c r="O13" s="1">
+        <v>10</v>
+      </c>
+      <c r="P13" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" customHeight="1" spans="5:5">
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" s="1" customFormat="1" customHeight="1" spans="3:17">
       <c r="C15" s="1">
         <v>9</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="1">
+        <v>2</v>
+      </c>
+      <c r="E15" s="4">
         <v>6000003</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>17</v>
+      <c r="F15" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1">
+        <v>100</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0</v>
+      </c>
+      <c r="P15" s="1">
+        <v>100</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" customHeight="1" spans="3:17">
+      <c r="C16" s="1">
+        <v>10</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2</v>
+      </c>
+      <c r="E16" s="4">
+        <v>6000003</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L15" s="1">
+      <c r="G16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M16" s="1">
         <v>0</v>
       </c>
-      <c r="M15" s="1">
+      <c r="N16" s="1">
         <v>100</v>
       </c>
-      <c r="N15" s="1">
+      <c r="O16" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" s="1" customFormat="1" customHeight="1" spans="3:14">
-      <c r="C16" s="1">
-        <v>10</v>
-      </c>
-      <c r="D16" s="4">
-        <v>6000003</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L16" s="1">
-        <v>0</v>
-      </c>
-      <c r="M16" s="1">
+      <c r="P16" s="1">
         <v>100</v>
       </c>
-      <c r="N16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" s="1" customFormat="1" customHeight="1" spans="3:14">
+      <c r="Q16" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" customHeight="1" spans="3:17">
       <c r="C17" s="1">
         <v>11</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="1">
+        <v>2</v>
+      </c>
+      <c r="E17" s="4">
         <v>6000003</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>17</v>
+      <c r="F17" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L17" s="1">
-        <v>10</v>
+        <v>22</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="M17" s="1">
+        <v>10</v>
+      </c>
+      <c r="N17" s="1">
         <v>30</v>
       </c>
-      <c r="N17" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" s="1" customFormat="1" customHeight="1" spans="3:14">
+      <c r="O17" s="1">
+        <v>10</v>
+      </c>
+      <c r="P17" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" customHeight="1" spans="3:17">
       <c r="C18" s="1">
         <v>12</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="1">
+        <v>2</v>
+      </c>
+      <c r="E18" s="4">
         <v>6000003</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>17</v>
+      <c r="F18" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L18" s="1">
-        <v>10</v>
+        <v>22</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="M18" s="1">
+        <v>10</v>
+      </c>
+      <c r="N18" s="1">
         <v>30</v>
       </c>
-      <c r="N18" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" s="1" customFormat="1" customHeight="1" spans="3:14">
+      <c r="O18" s="1">
+        <v>10</v>
+      </c>
+      <c r="P18" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" customHeight="1" spans="3:17">
       <c r="C19" s="1">
         <v>13</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="1">
+        <v>2</v>
+      </c>
+      <c r="E19" s="4">
         <v>6000003</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>17</v>
+      <c r="F19" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L19" s="1">
-        <v>10</v>
+        <v>22</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="M19" s="1">
+        <v>10</v>
+      </c>
+      <c r="N19" s="1">
         <v>30</v>
       </c>
-      <c r="N19" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" s="1" customFormat="1" customHeight="1" spans="3:14">
+      <c r="O19" s="1">
+        <v>10</v>
+      </c>
+      <c r="P19" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" customHeight="1" spans="3:17">
       <c r="C20" s="1">
         <v>14</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="1">
+        <v>2</v>
+      </c>
+      <c r="E20" s="4">
         <v>6000003</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>17</v>
+      <c r="F20" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L20" s="1">
-        <v>10</v>
+        <v>22</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="M20" s="1">
+        <v>10</v>
+      </c>
+      <c r="N20" s="1">
         <v>30</v>
       </c>
-      <c r="N20" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" s="1" customFormat="1" customHeight="1" spans="3:14">
+      <c r="O20" s="1">
+        <v>10</v>
+      </c>
+      <c r="P20" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" customHeight="1" spans="3:17">
       <c r="C21" s="1">
         <v>15</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="1">
+        <v>2</v>
+      </c>
+      <c r="E21" s="4">
         <v>6000003</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>17</v>
+      <c r="F21" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="1">
-        <v>10</v>
+        <v>22</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="M21" s="1">
+        <v>10</v>
+      </c>
+      <c r="N21" s="1">
         <v>30</v>
       </c>
-      <c r="N21" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" s="1" customFormat="1" customHeight="1" spans="3:14">
+      <c r="O21" s="1">
+        <v>10</v>
+      </c>
+      <c r="P21" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" customHeight="1" spans="3:17">
       <c r="C22" s="1">
         <v>16</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="1">
+        <v>2</v>
+      </c>
+      <c r="E22" s="4">
         <v>6000003</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>17</v>
+      <c r="F22" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L22" s="1">
-        <v>10</v>
+        <v>22</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="M22" s="1">
+        <v>10</v>
+      </c>
+      <c r="N22" s="1">
         <v>30</v>
       </c>
-      <c r="N22" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" s="1" customFormat="1" customHeight="1" spans="4:4">
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" s="1" customFormat="1" customHeight="1" spans="3:14">
+      <c r="O22" s="1">
+        <v>10</v>
+      </c>
+      <c r="P22" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" customHeight="1" spans="5:5">
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" s="1" customFormat="1" customHeight="1" spans="3:17">
       <c r="C24" s="1">
         <v>17</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="1">
+        <v>3</v>
+      </c>
+      <c r="E24" s="4">
         <v>6000003</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>17</v>
+      <c r="F24" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="1">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
       </c>
       <c r="N24" s="1">
+        <v>0</v>
+      </c>
+      <c r="O24" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="25" s="1" customFormat="1" customHeight="1" spans="3:14">
+      <c r="P24" s="1">
+        <v>100</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" customHeight="1" spans="3:17">
       <c r="C25" s="1">
         <v>18</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="1">
+        <v>3</v>
+      </c>
+      <c r="E25" s="4">
         <v>6000003</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>17</v>
+      <c r="F25" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L25" s="1">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
       </c>
       <c r="N25" s="1">
+        <v>0</v>
+      </c>
+      <c r="O25" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="26" s="1" customFormat="1" customHeight="1" spans="3:14">
+      <c r="P25" s="1">
+        <v>100</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" customHeight="1" spans="3:17">
       <c r="C26" s="1">
         <v>19</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="1">
+        <v>3</v>
+      </c>
+      <c r="E26" s="4">
         <v>6000003</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>17</v>
+      <c r="F26" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M26" s="1">
+        <v>10</v>
+      </c>
+      <c r="N26" s="1">
+        <v>10</v>
+      </c>
+      <c r="O26" s="1">
+        <v>30</v>
+      </c>
+      <c r="P26" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" customHeight="1" spans="3:17">
+      <c r="C27" s="1">
+        <v>20</v>
+      </c>
+      <c r="D27" s="1">
+        <v>3</v>
+      </c>
+      <c r="E27" s="4">
+        <v>6000003</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K26" s="5" t="s">
+      <c r="G27" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M27" s="1">
+        <v>10</v>
+      </c>
+      <c r="N27" s="1">
+        <v>10</v>
+      </c>
+      <c r="O27" s="1">
+        <v>30</v>
+      </c>
+      <c r="P27" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" customHeight="1" spans="3:17">
+      <c r="C28" s="1">
+        <v>21</v>
+      </c>
+      <c r="D28" s="1">
+        <v>3</v>
+      </c>
+      <c r="E28" s="4">
+        <v>6000003</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L26" s="1">
-        <v>10</v>
-      </c>
-      <c r="M26" s="1">
-        <v>10</v>
-      </c>
-      <c r="N26" s="1">
+      <c r="G28" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M28" s="1">
+        <v>10</v>
+      </c>
+      <c r="N28" s="1">
+        <v>10</v>
+      </c>
+      <c r="O28" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="27" s="1" customFormat="1" customHeight="1" spans="3:14">
-      <c r="C27" s="1">
-        <v>20</v>
-      </c>
-      <c r="D27" s="4">
+      <c r="P28" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="1" customHeight="1" spans="3:17">
+      <c r="C29" s="1">
+        <v>22</v>
+      </c>
+      <c r="D29" s="1">
+        <v>3</v>
+      </c>
+      <c r="E29" s="4">
         <v>6000003</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J27" s="5" t="s">
+      <c r="F29" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K27" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L27" s="1">
-        <v>10</v>
-      </c>
-      <c r="M27" s="1">
-        <v>10</v>
-      </c>
-      <c r="N27" s="1">
+      <c r="G29" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L29" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M29" s="1">
+        <v>10</v>
+      </c>
+      <c r="N29" s="1">
+        <v>10</v>
+      </c>
+      <c r="O29" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="28" s="1" customFormat="1" customHeight="1" spans="3:14">
-      <c r="C28" s="1">
-        <v>21</v>
-      </c>
-      <c r="D28" s="4">
-        <v>6000003</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J28" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K28" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L28" s="1">
-        <v>10</v>
-      </c>
-      <c r="M28" s="1">
-        <v>10</v>
-      </c>
-      <c r="N28" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" s="1" customFormat="1" customHeight="1" spans="3:14">
-      <c r="C29" s="1">
-        <v>22</v>
-      </c>
-      <c r="D29" s="4">
-        <v>6000003</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J29" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K29" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L29" s="1">
-        <v>10</v>
-      </c>
-      <c r="M29" s="1">
-        <v>10</v>
-      </c>
-      <c r="N29" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" s="1" customFormat="1" customHeight="1" spans="3:14">
+      <c r="P29" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1" customHeight="1" spans="3:17">
       <c r="C30" s="1">
         <v>23</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="1">
+        <v>3</v>
+      </c>
+      <c r="E30" s="4">
         <v>6000003</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>17</v>
+      <c r="F30" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L30" s="1">
-        <v>10</v>
+        <v>22</v>
+      </c>
+      <c r="L30" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="M30" s="1">
         <v>10</v>
       </c>
       <c r="N30" s="1">
+        <v>10</v>
+      </c>
+      <c r="O30" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="31" s="1" customFormat="1" customHeight="1" spans="3:14">
+      <c r="P30" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="1" customHeight="1" spans="3:17">
       <c r="C31" s="1">
         <v>24</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="1">
+        <v>3</v>
+      </c>
+      <c r="E31" s="4">
         <v>6000003</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>17</v>
+      <c r="F31" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L31" s="1">
-        <v>10</v>
+        <v>22</v>
+      </c>
+      <c r="L31" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="M31" s="1">
         <v>10</v>
       </c>
       <c r="N31" s="1">
+        <v>10</v>
+      </c>
+      <c r="O31" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" s="1" customFormat="1" customHeight="1" spans="4:4">
-      <c r="D32" s="4"/>
+      <c r="P31" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" s="1" customFormat="1" customHeight="1" spans="5:5">
+      <c r="E32" s="4"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 F3 G3 H3 I3 J3 K3 L3 M3 N3 D4 E4 F4 G4 H4 I4 J4 K4 L4 M4 N4 D5 E5 F5 G5 H5 I5 J5 K5 L5 M5 N5 C3:C5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 F3 G3 H3 I3 J3 K3 L3 M3 N3 O3 P3 Q3 D4 E4 F4 G4 H4 I4 J4 K4 L4 M4 N4 O4 P4 Q4 D5 E5 F5 G5 H5 I5 J5 K5 L5 M5 N5 O5 P5 Q5 C3:C5" errorStyle="warning">
       <formula1>COUNTIF($A:$A,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/LegacyConfig.xlsx
+++ b/Excel/LegacyConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="27">
   <si>
     <t>ID</t>
   </si>
@@ -59,13 +59,7 @@
     <t>LayerRiseList</t>
   </si>
   <si>
-    <t>Power1</t>
-  </si>
-  <si>
-    <t>Power2</t>
-  </si>
-  <si>
-    <t>Power3</t>
+    <t>PowerList</t>
   </si>
   <si>
     <t>DropRate</t>
@@ -96,6 +90,24 @@
   </si>
   <si>
     <t>5,5,5,5</t>
+  </si>
+  <si>
+    <t>100,0,0</t>
+  </si>
+  <si>
+    <t>30,10,10</t>
+  </si>
+  <si>
+    <t>0,100,0</t>
+  </si>
+  <si>
+    <t>10,30,10</t>
+  </si>
+  <si>
+    <t>0,0,100</t>
+  </si>
+  <si>
+    <t>10,10,30</t>
   </si>
 </sst>
 </file>
@@ -1063,10 +1075,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -1081,9 +1093,9 @@
     <col min="10" max="10" width="13.25" style="2" customWidth="1"/>
     <col min="11" max="11" width="13.375" style="2" customWidth="1"/>
     <col min="12" max="12" width="11.125" style="2" customWidth="1"/>
-    <col min="13" max="17" width="12.125" style="1" customWidth="1"/>
-    <col min="18" max="16373" width="9" style="2"/>
-    <col min="16374" max="16384" width="9" style="1"/>
+    <col min="13" max="15" width="12.125" style="1" customWidth="1"/>
+    <col min="16" max="16371" width="9" style="2"/>
+    <col min="16372" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:12">
@@ -1106,7 +1118,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:17">
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:15">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
@@ -1148,18 +1160,12 @@
       <c r="O3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:17">
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:15">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>1</v>
@@ -1197,63 +1203,51 @@
       <c r="O4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="P4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:17">
+    </row>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:15">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="J5" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>16</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" customHeight="1" spans="3:17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C6" s="1">
         <v>1</v>
       </c>
@@ -1264,43 +1258,37 @@
         <v>6000001</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" s="1">
+      <c r="N6" s="1">
         <v>100</v>
       </c>
-      <c r="N6" s="1">
-        <v>0</v>
-      </c>
       <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>100</v>
-      </c>
-      <c r="Q6" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" customHeight="1" spans="3:17">
+    <row r="7" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C7" s="1">
         <v>2</v>
       </c>
@@ -1311,43 +1299,37 @@
         <v>6000002</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M7" s="1">
+      <c r="N7" s="1">
         <v>100</v>
       </c>
-      <c r="N7" s="1">
-        <v>0</v>
-      </c>
       <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>100</v>
-      </c>
-      <c r="Q7" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" customHeight="1" spans="3:17">
+    <row r="8" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C8" s="1">
         <v>3</v>
       </c>
@@ -1358,43 +1340,37 @@
         <v>6000003</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="L8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M8" s="1">
-        <v>30</v>
-      </c>
       <c r="N8" s="1">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="O8" s="1">
-        <v>10</v>
-      </c>
-      <c r="P8" s="1">
-        <v>50</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" customHeight="1" spans="3:17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C9" s="1">
         <v>4</v>
       </c>
@@ -1405,43 +1381,37 @@
         <v>6000003</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M9" s="1">
-        <v>30</v>
-      </c>
       <c r="N9" s="1">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="O9" s="1">
-        <v>10</v>
-      </c>
-      <c r="P9" s="1">
-        <v>50</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" customHeight="1" spans="3:17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C10" s="1">
         <v>5</v>
       </c>
@@ -1452,43 +1422,37 @@
         <v>6000003</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="L10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M10" s="1">
-        <v>30</v>
-      </c>
       <c r="N10" s="1">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="O10" s="1">
-        <v>10</v>
-      </c>
-      <c r="P10" s="1">
-        <v>50</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" customHeight="1" spans="3:17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C11" s="1">
         <v>6</v>
       </c>
@@ -1499,43 +1463,37 @@
         <v>6000003</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="L11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M11" s="1">
-        <v>30</v>
-      </c>
       <c r="N11" s="1">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="O11" s="1">
-        <v>10</v>
-      </c>
-      <c r="P11" s="1">
-        <v>50</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" customHeight="1" spans="3:17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C12" s="1">
         <v>7</v>
       </c>
@@ -1546,43 +1504,37 @@
         <v>6000003</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="L12" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M12" s="1">
-        <v>30</v>
-      </c>
       <c r="N12" s="1">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="O12" s="1">
-        <v>10</v>
-      </c>
-      <c r="P12" s="1">
-        <v>50</v>
-      </c>
-      <c r="Q12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" customHeight="1" spans="3:17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C13" s="1">
         <v>8</v>
       </c>
@@ -1593,46 +1545,40 @@
         <v>6000003</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="L13" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M13" s="1">
-        <v>30</v>
-      </c>
       <c r="N13" s="1">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="O13" s="1">
-        <v>10</v>
-      </c>
-      <c r="P13" s="1">
-        <v>50</v>
-      </c>
-      <c r="Q13" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" customHeight="1" spans="5:5">
       <c r="E14" s="4"/>
     </row>
-    <row r="15" s="1" customFormat="1" customHeight="1" spans="3:17">
+    <row r="15" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C15" s="1">
         <v>9</v>
       </c>
@@ -1643,43 +1589,37 @@
         <v>6000003</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M15" s="1">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="N15" s="1">
         <v>100</v>
       </c>
       <c r="O15" s="1">
-        <v>0</v>
-      </c>
-      <c r="P15" s="1">
-        <v>100</v>
-      </c>
-      <c r="Q15" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" customHeight="1" spans="3:17">
+    <row r="16" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C16" s="1">
         <v>10</v>
       </c>
@@ -1690,43 +1630,37 @@
         <v>6000003</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M16" s="1">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="N16" s="1">
         <v>100</v>
       </c>
       <c r="O16" s="1">
-        <v>0</v>
-      </c>
-      <c r="P16" s="1">
-        <v>100</v>
-      </c>
-      <c r="Q16" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" customHeight="1" spans="3:17">
+    <row r="17" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C17" s="1">
         <v>11</v>
       </c>
@@ -1737,43 +1671,37 @@
         <v>6000003</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M17" s="1">
-        <v>10</v>
+        <v>20</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="N17" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="O17" s="1">
-        <v>10</v>
-      </c>
-      <c r="P17" s="1">
-        <v>50</v>
-      </c>
-      <c r="Q17" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" s="1" customFormat="1" customHeight="1" spans="3:17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C18" s="1">
         <v>12</v>
       </c>
@@ -1784,43 +1712,37 @@
         <v>6000003</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M18" s="1">
-        <v>10</v>
+        <v>20</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="N18" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="O18" s="1">
-        <v>10</v>
-      </c>
-      <c r="P18" s="1">
-        <v>50</v>
-      </c>
-      <c r="Q18" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" s="1" customFormat="1" customHeight="1" spans="3:17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C19" s="1">
         <v>13</v>
       </c>
@@ -1831,43 +1753,37 @@
         <v>6000003</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M19" s="1">
-        <v>10</v>
+        <v>20</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="N19" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="O19" s="1">
-        <v>10</v>
-      </c>
-      <c r="P19" s="1">
-        <v>50</v>
-      </c>
-      <c r="Q19" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" s="1" customFormat="1" customHeight="1" spans="3:17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C20" s="1">
         <v>14</v>
       </c>
@@ -1878,43 +1794,37 @@
         <v>6000003</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M20" s="1">
-        <v>10</v>
+        <v>20</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="N20" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="O20" s="1">
-        <v>10</v>
-      </c>
-      <c r="P20" s="1">
-        <v>50</v>
-      </c>
-      <c r="Q20" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" s="1" customFormat="1" customHeight="1" spans="3:17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C21" s="1">
         <v>15</v>
       </c>
@@ -1925,43 +1835,37 @@
         <v>6000003</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M21" s="1">
-        <v>10</v>
+        <v>20</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="N21" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="O21" s="1">
-        <v>10</v>
-      </c>
-      <c r="P21" s="1">
-        <v>50</v>
-      </c>
-      <c r="Q21" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" s="1" customFormat="1" customHeight="1" spans="3:17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C22" s="1">
         <v>16</v>
       </c>
@@ -1972,46 +1876,40 @@
         <v>6000003</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M22" s="1">
-        <v>10</v>
+        <v>20</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="N22" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="O22" s="1">
-        <v>10</v>
-      </c>
-      <c r="P22" s="1">
-        <v>50</v>
-      </c>
-      <c r="Q22" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" customHeight="1" spans="5:5">
       <c r="E23" s="4"/>
     </row>
-    <row r="24" s="1" customFormat="1" customHeight="1" spans="3:17">
+    <row r="24" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C24" s="1">
         <v>17</v>
       </c>
@@ -2022,43 +1920,37 @@
         <v>6000003</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M24" s="1">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="M24" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="N24" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O24" s="1">
-        <v>100</v>
-      </c>
-      <c r="P24" s="1">
-        <v>100</v>
-      </c>
-      <c r="Q24" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" customHeight="1" spans="3:17">
+    <row r="25" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C25" s="1">
         <v>18</v>
       </c>
@@ -2069,43 +1961,37 @@
         <v>6000003</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M25" s="1">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="M25" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="N25" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O25" s="1">
-        <v>100</v>
-      </c>
-      <c r="P25" s="1">
-        <v>100</v>
-      </c>
-      <c r="Q25" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" customHeight="1" spans="3:17">
+    <row r="26" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C26" s="1">
         <v>19</v>
       </c>
@@ -2116,43 +2002,37 @@
         <v>6000003</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M26" s="1">
-        <v>10</v>
+        <v>20</v>
+      </c>
+      <c r="M26" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="N26" s="1">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="O26" s="1">
-        <v>30</v>
-      </c>
-      <c r="P26" s="1">
-        <v>50</v>
-      </c>
-      <c r="Q26" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" s="1" customFormat="1" customHeight="1" spans="3:17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C27" s="1">
         <v>20</v>
       </c>
@@ -2163,43 +2043,37 @@
         <v>6000003</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M27" s="1">
-        <v>10</v>
+        <v>20</v>
+      </c>
+      <c r="M27" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="N27" s="1">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="O27" s="1">
-        <v>30</v>
-      </c>
-      <c r="P27" s="1">
-        <v>50</v>
-      </c>
-      <c r="Q27" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" s="1" customFormat="1" customHeight="1" spans="3:17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C28" s="1">
         <v>21</v>
       </c>
@@ -2210,43 +2084,37 @@
         <v>6000003</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M28" s="1">
-        <v>10</v>
+        <v>20</v>
+      </c>
+      <c r="M28" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="N28" s="1">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="O28" s="1">
-        <v>30</v>
-      </c>
-      <c r="P28" s="1">
-        <v>50</v>
-      </c>
-      <c r="Q28" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" s="1" customFormat="1" customHeight="1" spans="3:17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C29" s="1">
         <v>22</v>
       </c>
@@ -2257,43 +2125,37 @@
         <v>6000003</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M29" s="1">
-        <v>10</v>
+        <v>20</v>
+      </c>
+      <c r="M29" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="N29" s="1">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="O29" s="1">
-        <v>30</v>
-      </c>
-      <c r="P29" s="1">
-        <v>50</v>
-      </c>
-      <c r="Q29" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" s="1" customFormat="1" customHeight="1" spans="3:17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C30" s="1">
         <v>23</v>
       </c>
@@ -2304,43 +2166,37 @@
         <v>6000003</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M30" s="1">
-        <v>10</v>
+        <v>20</v>
+      </c>
+      <c r="M30" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="N30" s="1">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="O30" s="1">
-        <v>30</v>
-      </c>
-      <c r="P30" s="1">
-        <v>50</v>
-      </c>
-      <c r="Q30" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" s="1" customFormat="1" customHeight="1" spans="3:17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C31" s="1">
         <v>24</v>
       </c>
@@ -2351,39 +2207,33 @@
         <v>6000003</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M31" s="1">
-        <v>10</v>
+        <v>20</v>
+      </c>
+      <c r="M31" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="N31" s="1">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="O31" s="1">
-        <v>30</v>
-      </c>
-      <c r="P31" s="1">
-        <v>50</v>
-      </c>
-      <c r="Q31" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2392,7 +2242,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 F3 G3 H3 I3 J3 K3 L3 M3 N3 O3 P3 Q3 D4 E4 F4 G4 H4 I4 J4 K4 L4 M4 N4 O4 P4 Q4 D5 E5 F5 G5 H5 I5 J5 K5 L5 M5 N5 O5 P5 Q5 C3:C5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 F3 G3 H3 I3 J3 K3 L3 M3 N3 O3 D4 E4 F4 G4 H4 I4 J4 K4 L4 M4 N4 O4 D5 E5 F5 G5 H5 I5 J5 K5 L5 M5 N5 O5 C3:C5" errorStyle="warning">
       <formula1>COUNTIF($A:$A,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/LegacyConfig.xlsx
+++ b/Excel/LegacyConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="50">
   <si>
     <t>ID</t>
   </si>
@@ -80,7 +80,7 @@
     <t>int[]</t>
   </si>
   <si>
-    <t>之</t>
+    <t>传世战刃</t>
   </si>
   <si>
     <t>14,16,15,26</t>
@@ -95,19 +95,88 @@
     <t>100,0,0</t>
   </si>
   <si>
+    <t>传世战甲</t>
+  </si>
+  <si>
+    <t>传世战链</t>
+  </si>
+  <si>
     <t>30,10,10</t>
   </si>
   <si>
+    <t>传世战盔</t>
+  </si>
+  <si>
+    <t>传世战镯</t>
+  </si>
+  <si>
+    <t>传世战戒</t>
+  </si>
+  <si>
+    <t>传世战带</t>
+  </si>
+  <si>
+    <t>传世战靴</t>
+  </si>
+  <si>
+    <t>传世法杖</t>
+  </si>
+  <si>
     <t>0,100,0</t>
   </si>
   <si>
+    <t>传世法衣</t>
+  </si>
+  <si>
+    <t>传世法链</t>
+  </si>
+  <si>
     <t>10,30,10</t>
   </si>
   <si>
+    <t>传世法帽</t>
+  </si>
+  <si>
+    <t>传世法镯</t>
+  </si>
+  <si>
+    <t>传世法戒</t>
+  </si>
+  <si>
+    <t>传世法带</t>
+  </si>
+  <si>
+    <t>传世法靴</t>
+  </si>
+  <si>
+    <t>传世道剑</t>
+  </si>
+  <si>
     <t>0,0,100</t>
   </si>
   <si>
+    <t>传世道袍</t>
+  </si>
+  <si>
+    <t>传世道链</t>
+  </si>
+  <si>
     <t>10,10,30</t>
+  </si>
+  <si>
+    <t>传世道冠</t>
+  </si>
+  <si>
+    <t>传世道镯</t>
+  </si>
+  <si>
+    <t>传世道戒</t>
+  </si>
+  <si>
+    <t>传世道带</t>
+  </si>
+  <si>
+    <t>传世道靴</t>
   </si>
 </sst>
 </file>
@@ -1078,7 +1147,7 @@
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -1299,7 +1368,7 @@
         <v>6000002</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>18</v>
@@ -1340,7 +1409,7 @@
         <v>6000003</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>18</v>
@@ -1361,7 +1430,7 @@
         <v>20</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N8" s="1">
         <v>50</v>
@@ -1381,7 +1450,7 @@
         <v>6000003</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>18</v>
@@ -1402,7 +1471,7 @@
         <v>20</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N9" s="1">
         <v>50</v>
@@ -1422,7 +1491,7 @@
         <v>6000003</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>18</v>
@@ -1443,7 +1512,7 @@
         <v>20</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N10" s="1">
         <v>50</v>
@@ -1463,7 +1532,7 @@
         <v>6000003</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>18</v>
@@ -1484,7 +1553,7 @@
         <v>20</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N11" s="1">
         <v>50</v>
@@ -1504,7 +1573,7 @@
         <v>6000003</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>18</v>
@@ -1525,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N12" s="1">
         <v>50</v>
@@ -1545,7 +1614,7 @@
         <v>6000003</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>18</v>
@@ -1566,7 +1635,7 @@
         <v>20</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N13" s="1">
         <v>50</v>
@@ -1589,7 +1658,7 @@
         <v>6000003</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>18</v>
@@ -1610,7 +1679,7 @@
         <v>20</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="N15" s="1">
         <v>100</v>
@@ -1630,7 +1699,7 @@
         <v>6000003</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>18</v>
@@ -1651,7 +1720,7 @@
         <v>20</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="N16" s="1">
         <v>100</v>
@@ -1671,7 +1740,7 @@
         <v>6000003</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>18</v>
@@ -1692,7 +1761,7 @@
         <v>20</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="N17" s="1">
         <v>50</v>
@@ -1712,7 +1781,7 @@
         <v>6000003</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>18</v>
@@ -1733,7 +1802,7 @@
         <v>20</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="N18" s="1">
         <v>50</v>
@@ -1753,7 +1822,7 @@
         <v>6000003</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>18</v>
@@ -1774,7 +1843,7 @@
         <v>20</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="N19" s="1">
         <v>50</v>
@@ -1794,7 +1863,7 @@
         <v>6000003</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>18</v>
@@ -1815,7 +1884,7 @@
         <v>20</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="N20" s="1">
         <v>50</v>
@@ -1835,7 +1904,7 @@
         <v>6000003</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>18</v>
@@ -1856,7 +1925,7 @@
         <v>20</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="N21" s="1">
         <v>50</v>
@@ -1876,7 +1945,7 @@
         <v>6000003</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>18</v>
@@ -1897,7 +1966,7 @@
         <v>20</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="N22" s="1">
         <v>50</v>
@@ -1920,7 +1989,7 @@
         <v>6000003</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>18</v>
@@ -1941,7 +2010,7 @@
         <v>20</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="N24" s="1">
         <v>100</v>
@@ -1961,7 +2030,7 @@
         <v>6000003</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>18</v>
@@ -1982,7 +2051,7 @@
         <v>20</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="N25" s="1">
         <v>100</v>
@@ -2002,7 +2071,7 @@
         <v>6000003</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>18</v>
@@ -2023,7 +2092,7 @@
         <v>20</v>
       </c>
       <c r="M26" s="5" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="N26" s="1">
         <v>50</v>
@@ -2043,7 +2112,7 @@
         <v>6000003</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>18</v>
@@ -2064,7 +2133,7 @@
         <v>20</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="N27" s="1">
         <v>50</v>
@@ -2084,7 +2153,7 @@
         <v>6000003</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>18</v>
@@ -2105,7 +2174,7 @@
         <v>20</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="N28" s="1">
         <v>50</v>
@@ -2125,7 +2194,7 @@
         <v>6000003</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>18</v>
@@ -2146,7 +2215,7 @@
         <v>20</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="N29" s="1">
         <v>50</v>
@@ -2166,7 +2235,7 @@
         <v>6000003</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>18</v>
@@ -2187,7 +2256,7 @@
         <v>20</v>
       </c>
       <c r="M30" s="5" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="N30" s="1">
         <v>50</v>
@@ -2207,7 +2276,7 @@
         <v>6000003</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>18</v>
@@ -2228,7 +2297,7 @@
         <v>20</v>
       </c>
       <c r="M31" s="5" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="N31" s="1">
         <v>50</v>

--- a/Excel/LegacyConfig.xlsx
+++ b/Excel/LegacyConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="63">
   <si>
     <t>ID</t>
   </si>
@@ -86,19 +86,34 @@
     <t>14,16,15,26</t>
   </si>
   <si>
+    <t>100,100,100,100</t>
+  </si>
+  <si>
+    <t>33,2004,2007,2001</t>
+  </si>
+  <si>
+    <t>10,2,2,2</t>
+  </si>
+  <si>
+    <t>100,0,0</t>
+  </si>
+  <si>
+    <t>传世战甲</t>
+  </si>
+  <si>
+    <t>33,2004,2007,2002</t>
+  </si>
+  <si>
+    <t>传世战链</t>
+  </si>
+  <si>
     <t>50,50,50,50</t>
   </si>
   <si>
-    <t>5,5,5,5</t>
-  </si>
-  <si>
-    <t>100,0,0</t>
-  </si>
-  <si>
-    <t>传世战甲</t>
-  </si>
-  <si>
-    <t>传世战链</t>
+    <t>33,2004,2007,2003</t>
+  </si>
+  <si>
+    <t>5,1,1,1</t>
   </si>
   <si>
     <t>30,10,10</t>
@@ -122,15 +137,27 @@
     <t>传世法杖</t>
   </si>
   <si>
+    <t>14,16,15,27</t>
+  </si>
+  <si>
+    <t>34,2005,2008,2001</t>
+  </si>
+  <si>
     <t>0,100,0</t>
   </si>
   <si>
     <t>传世法衣</t>
   </si>
   <si>
+    <t>34,2005,2008,2002</t>
+  </si>
+  <si>
     <t>传世法链</t>
   </si>
   <si>
+    <t>34,2005,2008,2003</t>
+  </si>
+  <si>
     <t>10,30,10</t>
   </si>
   <si>
@@ -152,13 +179,25 @@
     <t>传世道剑</t>
   </si>
   <si>
+    <t>14,16,15,28</t>
+  </si>
+  <si>
+    <t>35,2006,2009,2001</t>
+  </si>
+  <si>
     <t>0,0,100</t>
   </si>
   <si>
     <t>传世道袍</t>
   </si>
   <si>
+    <t>35,2006,2009,2002</t>
+  </si>
+  <si>
     <t>传世道链</t>
+  </si>
+  <si>
+    <t>35,2006,2009,2003</t>
   </si>
   <si>
     <t>10,10,30</t>
@@ -1146,8 +1185,8 @@
   <sheetPr/>
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -1339,16 +1378,16 @@
         <v>19</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N6" s="1">
         <v>100</v>
@@ -1368,7 +1407,7 @@
         <v>6000002</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>18</v>
@@ -1380,16 +1419,16 @@
         <v>19</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N7" s="1">
         <v>100</v>
@@ -1409,28 +1448,28 @@
         <v>6000003</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N8" s="1">
         <v>50</v>
@@ -1450,28 +1489,28 @@
         <v>6000003</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>18</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N9" s="1">
         <v>50</v>
@@ -1491,28 +1530,28 @@
         <v>6000003</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>18</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N10" s="1">
         <v>50</v>
@@ -1532,28 +1571,28 @@
         <v>6000003</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>18</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N11" s="1">
         <v>50</v>
@@ -1573,28 +1612,28 @@
         <v>6000003</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>18</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N12" s="1">
         <v>50</v>
@@ -1614,28 +1653,28 @@
         <v>6000003</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>18</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N13" s="1">
         <v>50</v>
@@ -1658,10 +1697,10 @@
         <v>6000003</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>19</v>
@@ -1670,16 +1709,16 @@
         <v>19</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="N15" s="1">
         <v>100</v>
@@ -1699,10 +1738,10 @@
         <v>6000003</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>19</v>
@@ -1711,16 +1750,16 @@
         <v>19</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="N16" s="1">
         <v>100</v>
@@ -1740,28 +1779,28 @@
         <v>6000003</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="N17" s="1">
         <v>50</v>
@@ -1781,28 +1820,28 @@
         <v>6000003</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="N18" s="1">
         <v>50</v>
@@ -1822,28 +1861,28 @@
         <v>6000003</v>
       </c>
       <c r="F19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G19" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="H19" s="5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="N19" s="1">
         <v>50</v>
@@ -1863,28 +1902,28 @@
         <v>6000003</v>
       </c>
       <c r="F20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J20" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="K20" s="5" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="N20" s="1">
         <v>50</v>
@@ -1904,28 +1943,28 @@
         <v>6000003</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="N21" s="1">
         <v>50</v>
@@ -1945,28 +1984,28 @@
         <v>6000003</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="N22" s="1">
         <v>50</v>
@@ -1989,10 +2028,10 @@
         <v>6000003</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>19</v>
@@ -2001,16 +2040,16 @@
         <v>19</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="N24" s="1">
         <v>100</v>
@@ -2030,10 +2069,10 @@
         <v>6000003</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>19</v>
@@ -2042,16 +2081,16 @@
         <v>19</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="N25" s="1">
         <v>100</v>
@@ -2071,28 +2110,28 @@
         <v>6000003</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="M26" s="5" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="N26" s="1">
         <v>50</v>
@@ -2112,28 +2151,28 @@
         <v>6000003</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="N27" s="1">
         <v>50</v>
@@ -2153,28 +2192,28 @@
         <v>6000003</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="N28" s="1">
         <v>50</v>
@@ -2194,28 +2233,28 @@
         <v>6000003</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="N29" s="1">
         <v>50</v>
@@ -2235,28 +2274,28 @@
         <v>6000003</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="M30" s="5" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="N30" s="1">
         <v>50</v>
@@ -2276,28 +2315,28 @@
         <v>6000003</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="M31" s="5" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="N31" s="1">
         <v>50</v>

--- a/Excel/LegacyConfig.xlsx
+++ b/Excel/LegacyConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -1186,7 +1186,7 @@
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+      <selection activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -1390,7 +1390,7 @@
         <v>22</v>
       </c>
       <c r="N6" s="1">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="O6" s="1">
         <v>2</v>
@@ -1431,7 +1431,7 @@
         <v>22</v>
       </c>
       <c r="N7" s="1">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="O7" s="1">
         <v>2</v>
@@ -1472,7 +1472,7 @@
         <v>29</v>
       </c>
       <c r="N8" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="O8" s="1">
         <v>1</v>
@@ -1513,7 +1513,7 @@
         <v>29</v>
       </c>
       <c r="N9" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="O9" s="1">
         <v>1</v>
@@ -1554,7 +1554,7 @@
         <v>29</v>
       </c>
       <c r="N10" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="O10" s="1">
         <v>1</v>
@@ -1595,7 +1595,7 @@
         <v>29</v>
       </c>
       <c r="N11" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="O11" s="1">
         <v>1</v>
@@ -1636,7 +1636,7 @@
         <v>29</v>
       </c>
       <c r="N12" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="O12" s="1">
         <v>1</v>
@@ -1677,7 +1677,7 @@
         <v>29</v>
       </c>
       <c r="N13" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="O13" s="1">
         <v>1</v>
@@ -1721,7 +1721,7 @@
         <v>38</v>
       </c>
       <c r="N15" s="1">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="O15" s="1">
         <v>2</v>
@@ -1762,7 +1762,7 @@
         <v>38</v>
       </c>
       <c r="N16" s="1">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="O16" s="1">
         <v>2</v>
@@ -1803,7 +1803,7 @@
         <v>43</v>
       </c>
       <c r="N17" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="O17" s="1">
         <v>1</v>
@@ -1844,7 +1844,7 @@
         <v>43</v>
       </c>
       <c r="N18" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="O18" s="1">
         <v>1</v>
@@ -1885,7 +1885,7 @@
         <v>43</v>
       </c>
       <c r="N19" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="O19" s="1">
         <v>1</v>
@@ -1926,7 +1926,7 @@
         <v>43</v>
       </c>
       <c r="N20" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="O20" s="1">
         <v>1</v>
@@ -1967,7 +1967,7 @@
         <v>43</v>
       </c>
       <c r="N21" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="O21" s="1">
         <v>1</v>
@@ -2008,7 +2008,7 @@
         <v>43</v>
       </c>
       <c r="N22" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="O22" s="1">
         <v>1</v>
@@ -2052,7 +2052,7 @@
         <v>52</v>
       </c>
       <c r="N24" s="1">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="O24" s="1">
         <v>2</v>
@@ -2093,7 +2093,7 @@
         <v>52</v>
       </c>
       <c r="N25" s="1">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="O25" s="1">
         <v>2</v>
@@ -2134,7 +2134,7 @@
         <v>57</v>
       </c>
       <c r="N26" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="O26" s="1">
         <v>1</v>
@@ -2175,7 +2175,7 @@
         <v>57</v>
       </c>
       <c r="N27" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="O27" s="1">
         <v>1</v>
@@ -2216,7 +2216,7 @@
         <v>57</v>
       </c>
       <c r="N28" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="O28" s="1">
         <v>1</v>
@@ -2257,7 +2257,7 @@
         <v>57</v>
       </c>
       <c r="N29" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="O29" s="1">
         <v>1</v>
@@ -2298,7 +2298,7 @@
         <v>57</v>
       </c>
       <c r="N30" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="O30" s="1">
         <v>1</v>
@@ -2339,7 +2339,7 @@
         <v>57</v>
       </c>
       <c r="N31" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="O31" s="1">
         <v>1</v>

--- a/Excel/LegacyConfig.xlsx
+++ b/Excel/LegacyConfig.xlsx
@@ -1186,7 +1186,7 @@
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="S24" sqref="S24"/>
+      <selection activeCell="N24" sqref="N24:N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -1390,7 +1390,7 @@
         <v>22</v>
       </c>
       <c r="N6" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="O6" s="1">
         <v>2</v>
@@ -1431,7 +1431,7 @@
         <v>22</v>
       </c>
       <c r="N7" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="O7" s="1">
         <v>2</v>
@@ -1721,7 +1721,7 @@
         <v>38</v>
       </c>
       <c r="N15" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="O15" s="1">
         <v>2</v>
@@ -1762,7 +1762,7 @@
         <v>38</v>
       </c>
       <c r="N16" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="O16" s="1">
         <v>2</v>
@@ -2052,7 +2052,7 @@
         <v>52</v>
       </c>
       <c r="N24" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="O24" s="1">
         <v>2</v>
@@ -2093,7 +2093,7 @@
         <v>52</v>
       </c>
       <c r="N25" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="O25" s="1">
         <v>2</v>

--- a/Excel/LegacyConfig.xlsx
+++ b/Excel/LegacyConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="64">
   <si>
     <t>ID</t>
   </si>
@@ -101,25 +101,28 @@
     <t>传世战甲</t>
   </si>
   <si>
+    <t>33,2004,2007,2011</t>
+  </si>
+  <si>
+    <t>传世战链</t>
+  </si>
+  <si>
+    <t>50,50,50,50</t>
+  </si>
+  <si>
+    <t>33,2004,2007,2003</t>
+  </si>
+  <si>
+    <t>5,1,1,1</t>
+  </si>
+  <si>
+    <t>30,10,10</t>
+  </si>
+  <si>
+    <t>传世战盔</t>
+  </si>
+  <si>
     <t>33,2004,2007,2002</t>
-  </si>
-  <si>
-    <t>传世战链</t>
-  </si>
-  <si>
-    <t>50,50,50,50</t>
-  </si>
-  <si>
-    <t>33,2004,2007,2003</t>
-  </si>
-  <si>
-    <t>5,1,1,1</t>
-  </si>
-  <si>
-    <t>30,10,10</t>
-  </si>
-  <si>
-    <t>传世战盔</t>
   </si>
   <si>
     <t>传世战镯</t>
@@ -1186,7 +1189,7 @@
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24:N31"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -1501,7 +1504,7 @@
         <v>26</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="K9" s="5" t="s">
         <v>28</v>
@@ -1530,7 +1533,7 @@
         <v>6000003</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>18</v>
@@ -1542,7 +1545,7 @@
         <v>26</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="K10" s="5" t="s">
         <v>28</v>
@@ -1571,7 +1574,7 @@
         <v>6000003</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>18</v>
@@ -1612,7 +1615,7 @@
         <v>6000003</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>18</v>
@@ -1624,7 +1627,7 @@
         <v>26</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="K12" s="5" t="s">
         <v>28</v>
@@ -1653,7 +1656,7 @@
         <v>6000003</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>18</v>
@@ -1697,10 +1700,10 @@
         <v>6000003</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>19</v>
@@ -1709,7 +1712,7 @@
         <v>19</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K15" s="5" t="s">
         <v>21</v>
@@ -1718,7 +1721,7 @@
         <v>21</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N15" s="1">
         <v>20</v>
@@ -1738,10 +1741,10 @@
         <v>6000003</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>19</v>
@@ -1750,7 +1753,7 @@
         <v>19</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K16" s="5" t="s">
         <v>21</v>
@@ -1759,7 +1762,7 @@
         <v>21</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N16" s="1">
         <v>20</v>
@@ -1779,10 +1782,10 @@
         <v>6000003</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>26</v>
@@ -1791,7 +1794,7 @@
         <v>26</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K17" s="5" t="s">
         <v>28</v>
@@ -1800,7 +1803,7 @@
         <v>28</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N17" s="1">
         <v>100</v>
@@ -1820,28 +1823,28 @@
         <v>6000003</v>
       </c>
       <c r="F18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M18" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="M18" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="N18" s="1">
         <v>100</v>
@@ -1861,10 +1864,10 @@
         <v>6000003</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>26</v>
@@ -1873,7 +1876,7 @@
         <v>26</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K19" s="5" t="s">
         <v>28</v>
@@ -1882,7 +1885,7 @@
         <v>28</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N19" s="1">
         <v>100</v>
@@ -1902,10 +1905,10 @@
         <v>6000003</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>26</v>
@@ -1914,7 +1917,7 @@
         <v>26</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K20" s="5" t="s">
         <v>28</v>
@@ -1923,7 +1926,7 @@
         <v>28</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N20" s="1">
         <v>100</v>
@@ -1943,10 +1946,10 @@
         <v>6000003</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>26</v>
@@ -1955,7 +1958,7 @@
         <v>26</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K21" s="5" t="s">
         <v>28</v>
@@ -1964,7 +1967,7 @@
         <v>28</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N21" s="1">
         <v>100</v>
@@ -1984,10 +1987,10 @@
         <v>6000003</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>26</v>
@@ -1996,7 +1999,7 @@
         <v>26</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K22" s="5" t="s">
         <v>28</v>
@@ -2005,7 +2008,7 @@
         <v>28</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N22" s="1">
         <v>100</v>
@@ -2028,10 +2031,10 @@
         <v>6000003</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>19</v>
@@ -2040,7 +2043,7 @@
         <v>19</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K24" s="5" t="s">
         <v>21</v>
@@ -2049,7 +2052,7 @@
         <v>21</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N24" s="1">
         <v>20</v>
@@ -2069,10 +2072,10 @@
         <v>6000003</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>19</v>
@@ -2081,7 +2084,7 @@
         <v>19</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K25" s="5" t="s">
         <v>21</v>
@@ -2090,7 +2093,7 @@
         <v>21</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N25" s="1">
         <v>20</v>
@@ -2110,10 +2113,10 @@
         <v>6000003</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>26</v>
@@ -2122,7 +2125,7 @@
         <v>26</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K26" s="5" t="s">
         <v>28</v>
@@ -2131,7 +2134,7 @@
         <v>28</v>
       </c>
       <c r="M26" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N26" s="1">
         <v>100</v>
@@ -2151,28 +2154,28 @@
         <v>6000003</v>
       </c>
       <c r="F27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M27" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J27" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="K27" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L27" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="M27" s="5" t="s">
-        <v>57</v>
       </c>
       <c r="N27" s="1">
         <v>100</v>
@@ -2192,10 +2195,10 @@
         <v>6000003</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>26</v>
@@ -2204,7 +2207,7 @@
         <v>26</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K28" s="5" t="s">
         <v>28</v>
@@ -2213,7 +2216,7 @@
         <v>28</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N28" s="1">
         <v>100</v>
@@ -2233,10 +2236,10 @@
         <v>6000003</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>26</v>
@@ -2245,7 +2248,7 @@
         <v>26</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K29" s="5" t="s">
         <v>28</v>
@@ -2254,7 +2257,7 @@
         <v>28</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N29" s="1">
         <v>100</v>
@@ -2274,10 +2277,10 @@
         <v>6000003</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H30" s="5" t="s">
         <v>26</v>
@@ -2286,7 +2289,7 @@
         <v>26</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K30" s="5" t="s">
         <v>28</v>
@@ -2295,7 +2298,7 @@
         <v>28</v>
       </c>
       <c r="M30" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N30" s="1">
         <v>100</v>
@@ -2315,10 +2318,10 @@
         <v>6000003</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>26</v>
@@ -2327,7 +2330,7 @@
         <v>26</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K31" s="5" t="s">
         <v>28</v>
@@ -2336,7 +2339,7 @@
         <v>28</v>
       </c>
       <c r="M31" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N31" s="1">
         <v>100</v>

--- a/Excel/LegacyConfig.xlsx
+++ b/Excel/LegacyConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="63">
   <si>
     <t>ID</t>
   </si>
@@ -89,10 +89,10 @@
     <t>100,100,100,100</t>
   </si>
   <si>
-    <t>33,2004,2007,2001</t>
-  </si>
-  <si>
-    <t>10,2,2,2</t>
+    <t>33,2004,2007,2011</t>
+  </si>
+  <si>
+    <t>10,2,2,1</t>
   </si>
   <si>
     <t>100,0,0</t>
@@ -101,30 +101,27 @@
     <t>传世战甲</t>
   </si>
   <si>
-    <t>33,2004,2007,2011</t>
-  </si>
-  <si>
     <t>传世战链</t>
   </si>
   <si>
     <t>50,50,50,50</t>
   </si>
   <si>
+    <t>33,2004,2007,2002</t>
+  </si>
+  <si>
+    <t>5,1,1,1</t>
+  </si>
+  <si>
+    <t>30,10,10</t>
+  </si>
+  <si>
+    <t>传世战盔</t>
+  </si>
+  <si>
     <t>33,2004,2007,2003</t>
   </si>
   <si>
-    <t>5,1,1,1</t>
-  </si>
-  <si>
-    <t>30,10,10</t>
-  </si>
-  <si>
-    <t>传世战盔</t>
-  </si>
-  <si>
-    <t>33,2004,2007,2002</t>
-  </si>
-  <si>
     <t>传世战镯</t>
   </si>
   <si>
@@ -143,7 +140,7 @@
     <t>14,16,15,27</t>
   </si>
   <si>
-    <t>34,2005,2008,2001</t>
+    <t>34,2005,2008,2011</t>
   </si>
   <si>
     <t>0,100,0</t>
@@ -152,21 +149,21 @@
     <t>传世法衣</t>
   </si>
   <si>
+    <t>传世法链</t>
+  </si>
+  <si>
     <t>34,2005,2008,2002</t>
   </si>
   <si>
-    <t>传世法链</t>
+    <t>10,30,10</t>
+  </si>
+  <si>
+    <t>传世法帽</t>
   </si>
   <si>
     <t>34,2005,2008,2003</t>
   </si>
   <si>
-    <t>10,30,10</t>
-  </si>
-  <si>
-    <t>传世法帽</t>
-  </si>
-  <si>
     <t>传世法镯</t>
   </si>
   <si>
@@ -185,7 +182,7 @@
     <t>14,16,15,28</t>
   </si>
   <si>
-    <t>35,2006,2009,2001</t>
+    <t>35,2006,2009,2011</t>
   </si>
   <si>
     <t>0,0,100</t>
@@ -194,19 +191,19 @@
     <t>传世道袍</t>
   </si>
   <si>
+    <t>传世道链</t>
+  </si>
+  <si>
     <t>35,2006,2009,2002</t>
   </si>
   <si>
-    <t>传世道链</t>
+    <t>10,10,30</t>
+  </si>
+  <si>
+    <t>传世道冠</t>
   </si>
   <si>
     <t>35,2006,2009,2003</t>
-  </si>
-  <si>
-    <t>10,10,30</t>
-  </si>
-  <si>
-    <t>传世道冠</t>
   </si>
   <si>
     <t>传世道镯</t>
@@ -1189,7 +1186,7 @@
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -1200,8 +1197,7 @@
     <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
     <col min="7" max="7" width="13.375" style="2" customWidth="1"/>
     <col min="8" max="8" width="15.125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="15.625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13.25" style="2" customWidth="1"/>
+    <col min="9" max="10" width="15.625" style="2" customWidth="1"/>
     <col min="11" max="11" width="13.375" style="2" customWidth="1"/>
     <col min="12" max="12" width="11.125" style="2" customWidth="1"/>
     <col min="13" max="15" width="12.125" style="1" customWidth="1"/>
@@ -1422,7 +1418,7 @@
         <v>19</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>21</v>
@@ -1451,28 +1447,28 @@
         <v>6000003</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="H8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>27</v>
-      </c>
       <c r="K8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="N8" s="1">
         <v>100</v>
@@ -1492,28 +1488,28 @@
         <v>6000003</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>18</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="N9" s="1">
         <v>100</v>
@@ -1533,28 +1529,28 @@
         <v>6000003</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>18</v>
       </c>
       <c r="H10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="K10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M10" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="N10" s="1">
         <v>100</v>
@@ -1574,28 +1570,28 @@
         <v>6000003</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>18</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M11" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="N11" s="1">
         <v>100</v>
@@ -1615,28 +1611,28 @@
         <v>6000003</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>18</v>
       </c>
       <c r="H12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="K12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M12" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="N12" s="1">
         <v>100</v>
@@ -1656,28 +1652,28 @@
         <v>6000003</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>18</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M13" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="N13" s="1">
         <v>100</v>
@@ -1700,10 +1696,10 @@
         <v>6000003</v>
       </c>
       <c r="F15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>37</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>19</v>
@@ -1712,7 +1708,7 @@
         <v>19</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K15" s="5" t="s">
         <v>21</v>
@@ -1721,7 +1717,7 @@
         <v>21</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N15" s="1">
         <v>20</v>
@@ -1741,10 +1737,10 @@
         <v>6000003</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>19</v>
@@ -1753,7 +1749,7 @@
         <v>19</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K16" s="5" t="s">
         <v>21</v>
@@ -1762,7 +1758,7 @@
         <v>21</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N16" s="1">
         <v>20</v>
@@ -1782,28 +1778,28 @@
         <v>6000003</v>
       </c>
       <c r="F17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M17" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="M17" s="5" t="s">
-        <v>44</v>
       </c>
       <c r="N17" s="1">
         <v>100</v>
@@ -1823,28 +1819,28 @@
         <v>6000003</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N18" s="1">
         <v>100</v>
@@ -1864,28 +1860,28 @@
         <v>6000003</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J19" s="5" t="s">
         <v>41</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N19" s="1">
         <v>100</v>
@@ -1905,28 +1901,28 @@
         <v>6000003</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N20" s="1">
         <v>100</v>
@@ -1946,28 +1942,28 @@
         <v>6000003</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J21" s="5" t="s">
         <v>41</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N21" s="1">
         <v>100</v>
@@ -1987,28 +1983,28 @@
         <v>6000003</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N22" s="1">
         <v>100</v>
@@ -2031,10 +2027,10 @@
         <v>6000003</v>
       </c>
       <c r="F24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G24" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>51</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>19</v>
@@ -2043,7 +2039,7 @@
         <v>19</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K24" s="5" t="s">
         <v>21</v>
@@ -2052,7 +2048,7 @@
         <v>21</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N24" s="1">
         <v>20</v>
@@ -2072,10 +2068,10 @@
         <v>6000003</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>19</v>
@@ -2084,7 +2080,7 @@
         <v>19</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K25" s="5" t="s">
         <v>21</v>
@@ -2093,7 +2089,7 @@
         <v>21</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N25" s="1">
         <v>20</v>
@@ -2113,28 +2109,28 @@
         <v>6000003</v>
       </c>
       <c r="F26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M26" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="K26" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L26" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="M26" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="N26" s="1">
         <v>100</v>
@@ -2154,28 +2150,28 @@
         <v>6000003</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N27" s="1">
         <v>100</v>
@@ -2195,28 +2191,28 @@
         <v>6000003</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J28" s="5" t="s">
         <v>55</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N28" s="1">
         <v>100</v>
@@ -2236,28 +2232,28 @@
         <v>6000003</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N29" s="1">
         <v>100</v>
@@ -2277,28 +2273,28 @@
         <v>6000003</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J30" s="5" t="s">
         <v>55</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M30" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N30" s="1">
         <v>100</v>
@@ -2318,28 +2314,28 @@
         <v>6000003</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M31" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N31" s="1">
         <v>100</v>
